--- a/Model Summary/NTSK-RLS_parameters.xlsx
+++ b/Model Summary/NTSK-RLS_parameters.xlsx
@@ -456,16 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.44698928]
- [0.43620393]
- [0.46205298]]</t>
+          <t>[[0.44889334]
+ [0.441223  ]
+ [0.45822978]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[0.20891918]
- [0.17016851]
- [0.14473316]]</t>
+          <t>[[0.20702952]
+ [0.17418403]
+ [0.1492001 ]]</t>
         </is>
       </c>
       <c r="D2" t="n">
